--- a/DATA_goal/Junction_Flooding_218.xlsx
+++ b/DATA_goal/Junction_Flooding_218.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,52 +655,52 @@
         <v>41650.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41650.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.26</v>
+        <v>2.03</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.24</v>
+        <v>2.82</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>129.54</v>
+        <v>12.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.61</v>
+        <v>2.46</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.77</v>
+        <v>2.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41650.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>2.12</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>93.13</v>
+        <v>9.31</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.41</v>
+        <v>2.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41650.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.15</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>94.34</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.29</v>
+        <v>2.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41650.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>29.19</v>
+        <v>2.92</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41650.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>26.33</v>
+        <v>2.63</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>33.71</v>
+        <v>3.37</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>136.73</v>
+        <v>13.67</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>26.17</v>
+        <v>2.62</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>17.73</v>
+        <v>1.77</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.48</v>
+        <v>3.05</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41650.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>25.3</v>
+        <v>2.53</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>42.47</v>
+        <v>4.25</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>160.81</v>
+        <v>16.08</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.74</v>
+        <v>3.07</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.84</v>
+        <v>2.08</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.75</v>
+        <v>3.88</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41650.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>25.7</v>
+        <v>2.57</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.18</v>
+        <v>3.72</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.45</v>
+        <v>0.65</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>133.36</v>
+        <v>13.34</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>25.76</v>
+        <v>2.58</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>33.97</v>
+        <v>3.4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41650.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.75</v>
+        <v>1.27</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>62.43</v>
+        <v>6.24</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_218.xlsx
+++ b/DATA_goal/Junction_Flooding_218.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44899.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.64</v>
+        <v>46.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.84</v>
+        <v>38.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.3</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.3</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.59</v>
+        <v>255.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.81</v>
+        <v>48.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.86</v>
+        <v>28.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.07</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.06</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44899.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44899.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P4" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.6</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44899.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.21</v>
+        <v>32.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.29</v>
+        <v>42.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.01</v>
+        <v>170.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.86</v>
+        <v>38.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_218.xlsx
+++ b/DATA_goal/Junction_Flooding_218.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,88 +658,88 @@
         <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.16</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.43</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.4</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.34</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.44</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.3</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.3</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.52</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.76</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.89</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.15</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.89</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.59</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.69</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.07</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.96</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44899.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>2.402</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.113</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.348</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>4.57</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.79</v>
+        <v>3.793</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.411</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.107</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.603</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>1.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.796</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.62</v>
+        <v>2.622</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.41</v>
+        <v>21.411</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>5.77</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.59</v>
+        <v>3.592</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.966</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>1.62</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.843</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.43</v>
+        <v>13.431</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.177</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44899.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.96</v>
+        <v>4.959</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.016</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.25</v>
+        <v>15.251</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.62</v>
+        <v>12.618</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.67</v>
+        <v>5.671</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.05</v>
+        <v>21.049</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.675</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.59</v>
+        <v>5.586</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.22</v>
+        <v>6.216</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.39</v>
+        <v>6.394</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.85</v>
+        <v>7.847</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.96</v>
+        <v>4.958</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>1.003</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.47</v>
+        <v>78.46899999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.65</v>
+        <v>15.649</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.22</v>
+        <v>10.223</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.63</v>
+        <v>5.634</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>9.9</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.226</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.94</v>
+        <v>4.939</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.441</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.6</v>
+        <v>18.602</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.83</v>
+        <v>2.827</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.507</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44899.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_218.xlsx
+++ b/DATA_goal/Junction_Flooding_218.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -967,103 +967,207 @@
         <v>44899.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.056</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>32.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.53</v>
+        <v>26.527</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.9</v>
+        <v>42.901</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.93</v>
+        <v>7.933</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>11.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.98</v>
+        <v>12.977</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.56</v>
+        <v>13.564</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.743</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.52</v>
+        <v>16.519</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.894</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.666</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.06</v>
+        <v>170.061</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.52</v>
+        <v>32.519</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.76</v>
+        <v>21.759</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.64</v>
+        <v>11.642</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.412</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>21.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.49</v>
+        <v>8.484999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.961</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.57</v>
+        <v>13.566</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.63</v>
+        <v>38.628</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.02</v>
+        <v>6.019</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44899.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_218.xlsx
+++ b/DATA_goal/Junction_Flooding_218.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -967,207 +967,103 @@
         <v>44899.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.893</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.056</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>32.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.527</v>
+        <v>26.53</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.901</v>
+        <v>42.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.033</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.933</v>
+        <v>7.93</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>11.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.977</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.564</v>
+        <v>13.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.743</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.519</v>
+        <v>16.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.894</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.666</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.061</v>
+        <v>170.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.519</v>
+        <v>32.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.759</v>
+        <v>21.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.642</v>
+        <v>11.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.412</v>
+        <v>1.41</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>21.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.484999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.961</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.566</v>
+        <v>13.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.628</v>
+        <v>38.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.019</v>
+        <v>6.02</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44899.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>
